--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
@@ -43,10 +43,10 @@
     <t>Err</t>
   </si>
   <si>
-    <t>LR: IC</t>
-  </si>
-  <si>
-    <t>LR: IC+Dem</t>
+    <t>LR: FC</t>
+  </si>
+  <si>
+    <t>LR: FC+Dem</t>
   </si>
   <si>
     <t>LR: CK</t>
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7620469798657717</v>
+        <v>0.7622664988814321</v>
       </c>
       <c r="C4">
-        <v>0.006078814461085713</v>
+        <v>0.00571083980243281</v>
       </c>
       <c r="D4">
-        <v>0.5263467068088376</v>
+        <v>0.5250671503001033</v>
       </c>
       <c r="E4">
-        <v>0.00734338018663061</v>
+        <v>0.007535602549303078</v>
       </c>
       <c r="F4">
-        <v>0.7141666666666666</v>
+        <v>0.7079166666666667</v>
       </c>
       <c r="G4">
-        <v>0.01281991918184411</v>
+        <v>0.01341083577871771</v>
       </c>
       <c r="H4">
-        <v>0.418179504896461</v>
+        <v>0.4186898776580533</v>
       </c>
       <c r="I4">
-        <v>0.006590098552120283</v>
+        <v>0.006510803406669541</v>
       </c>
       <c r="J4">
-        <v>0.8809725039574371</v>
+        <v>0.8794106808258723</v>
       </c>
       <c r="K4">
-        <v>0.004502637086091221</v>
+        <v>0.004615139199546481</v>
       </c>
       <c r="L4">
-        <v>0.6779194630872485</v>
+        <v>0.681744966442953</v>
       </c>
       <c r="M4">
-        <v>0.008427647029902063</v>
+        <v>0.008229091086333518</v>
       </c>
       <c r="N4">
-        <v>0.686751269035533</v>
+        <v>0.6881218274111676</v>
       </c>
       <c r="O4">
-        <v>0.006247229253843911</v>
+        <v>0.006047232990807894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7827041387024607</v>
+        <v>0.7783724832214765</v>
       </c>
       <c r="C5">
-        <v>0.005838929863713926</v>
+        <v>0.006340135465399022</v>
       </c>
       <c r="D5">
-        <v>0.5432247598886334</v>
+        <v>0.5356508685930461</v>
       </c>
       <c r="E5">
-        <v>0.007493662266882639</v>
+        <v>0.007694822650675448</v>
       </c>
       <c r="F5">
-        <v>0.70625</v>
+        <v>0.7006249999999998</v>
       </c>
       <c r="G5">
-        <v>0.01156594631534091</v>
+        <v>0.01178994738294192</v>
       </c>
       <c r="H5">
-        <v>0.442565085390712</v>
+        <v>0.4347078190365547</v>
       </c>
       <c r="I5">
-        <v>0.006976370644278584</v>
+        <v>0.00706237938265486</v>
       </c>
       <c r="J5">
-        <v>0.8829996462776599</v>
+        <v>0.8799986892712665</v>
       </c>
       <c r="K5">
-        <v>0.004039732714012811</v>
+        <v>0.004154830846346713</v>
       </c>
       <c r="L5">
-        <v>0.7117449664429532</v>
+        <v>0.7048993288590606</v>
       </c>
       <c r="M5">
-        <v>0.007343830378843785</v>
+        <v>0.007275409096557328</v>
       </c>
       <c r="N5">
-        <v>0.7104060913705584</v>
+        <v>0.7038578680203047</v>
       </c>
       <c r="O5">
-        <v>0.005829907995525851</v>
+        <v>0.005889097461523107</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8273315118397087</v>
+        <v>0.8232149362477234</v>
       </c>
       <c r="C6">
-        <v>0.008082544013940596</v>
+        <v>0.00927433688557322</v>
       </c>
       <c r="D6">
-        <v>0.5663051832578084</v>
+        <v>0.5627912413187917</v>
       </c>
       <c r="E6">
-        <v>0.01176696672895006</v>
+        <v>0.01205974758135719</v>
       </c>
       <c r="F6">
-        <v>0.7550000000000001</v>
+        <v>0.747222222222222</v>
       </c>
       <c r="G6">
-        <v>0.02090932025204406</v>
+        <v>0.01843074404481593</v>
       </c>
       <c r="H6">
-        <v>0.4574598337524249</v>
+        <v>0.4536807637180216</v>
       </c>
       <c r="I6">
-        <v>0.01143327996707455</v>
+        <v>0.01101081970265566</v>
       </c>
       <c r="J6">
-        <v>0.9117069810862847</v>
+        <v>0.9083290771302833</v>
       </c>
       <c r="K6">
-        <v>0.006701745358330458</v>
+        <v>0.006188222306910629</v>
       </c>
       <c r="L6">
-        <v>0.7309836065573773</v>
+        <v>0.731639344262295</v>
       </c>
       <c r="M6">
-        <v>0.01163298486050002</v>
+        <v>0.009482432257602924</v>
       </c>
       <c r="N6">
-        <v>0.7364556962025317</v>
+        <v>0.7351898734177216</v>
       </c>
       <c r="O6">
-        <v>0.008578084754321758</v>
+        <v>0.008231606980348638</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.85183970856102</v>
+        <v>0.8471220400728597</v>
       </c>
       <c r="C7">
-        <v>0.00828726862494189</v>
+        <v>0.007185958631370393</v>
       </c>
       <c r="D7">
-        <v>0.5810596368812112</v>
+        <v>0.585169246979326</v>
       </c>
       <c r="E7">
-        <v>0.01321063009099399</v>
+        <v>0.01127530844921076</v>
       </c>
       <c r="F7">
-        <v>0.7533333333333333</v>
+        <v>0.7444444444444446</v>
       </c>
       <c r="G7">
-        <v>0.0209225241939911</v>
+        <v>0.01938026746486432</v>
       </c>
       <c r="H7">
-        <v>0.4773029222948276</v>
+        <v>0.4867154437196383</v>
       </c>
       <c r="I7">
-        <v>0.01277665893419594</v>
+        <v>0.01142398924637272</v>
       </c>
       <c r="J7">
-        <v>0.9129226578425909</v>
+        <v>0.9115270005783728</v>
       </c>
       <c r="K7">
-        <v>0.006733498332612942</v>
+        <v>0.00595037427250833</v>
       </c>
       <c r="L7">
-        <v>0.7514754098360654</v>
+        <v>0.7636065573770491</v>
       </c>
       <c r="M7">
-        <v>0.01184804902149905</v>
+        <v>0.01119366278386591</v>
       </c>
       <c r="N7">
-        <v>0.7518987341772153</v>
+        <v>0.7592405063291139</v>
       </c>
       <c r="O7">
-        <v>0.009492250084762954</v>
+        <v>0.008156172386637239</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8023692033293698</v>
+        <v>0.8091290130796671</v>
       </c>
       <c r="C8">
-        <v>0.006876152452078954</v>
+        <v>0.006949979917863836</v>
       </c>
       <c r="D8">
-        <v>0.495306503763364</v>
+        <v>0.5004398723853462</v>
       </c>
       <c r="E8">
-        <v>0.008126297989855175</v>
+        <v>0.008399758554801462</v>
       </c>
       <c r="F8">
-        <v>0.7348275862068967</v>
+        <v>0.7399999999999999</v>
       </c>
       <c r="G8">
-        <v>0.01669455863775582</v>
+        <v>0.01608065363567401</v>
       </c>
       <c r="H8">
-        <v>0.3752779872687331</v>
+        <v>0.3797777712938863</v>
       </c>
       <c r="I8">
-        <v>0.006770370708266693</v>
+        <v>0.007347248767110959</v>
       </c>
       <c r="J8">
-        <v>0.9135998294734771</v>
+        <v>0.9153490125721607</v>
       </c>
       <c r="K8">
-        <v>0.004666593088195392</v>
+        <v>0.004627323739905154</v>
       </c>
       <c r="L8">
-        <v>0.6921551724137932</v>
+        <v>0.695344827586207</v>
       </c>
       <c r="M8">
-        <v>0.008960363285417827</v>
+        <v>0.009052002121991864</v>
       </c>
       <c r="N8">
-        <v>0.7006896551724138</v>
+        <v>0.7042758620689653</v>
       </c>
       <c r="O8">
-        <v>0.006430261500956602</v>
+        <v>0.006794356030421889</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8149375743162901</v>
+        <v>0.8136385255648038</v>
       </c>
       <c r="C9">
-        <v>0.007006756087601596</v>
+        <v>0.006906029580700079</v>
       </c>
       <c r="D9">
-        <v>0.5348273463873735</v>
+        <v>0.5284342509820101</v>
       </c>
       <c r="E9">
-        <v>0.008508464514695113</v>
+        <v>0.008365315746895696</v>
       </c>
       <c r="F9">
-        <v>0.7727586206896551</v>
+        <v>0.7634482758620689</v>
       </c>
       <c r="G9">
-        <v>0.01598257792256741</v>
+        <v>0.01661861613958182</v>
       </c>
       <c r="H9">
-        <v>0.4108985261171222</v>
+        <v>0.4058537096483448</v>
       </c>
       <c r="I9">
-        <v>0.007752932682388969</v>
+        <v>0.007145659673696458</v>
       </c>
       <c r="J9">
-        <v>0.9277219678621756</v>
+        <v>0.9248489130747584</v>
       </c>
       <c r="K9">
-        <v>0.004564423096095283</v>
+        <v>0.004767915584818372</v>
       </c>
       <c r="L9">
-        <v>0.7203448275862069</v>
+        <v>0.7186206896551723</v>
       </c>
       <c r="M9">
-        <v>0.008756934949250783</v>
+        <v>0.008120209748884388</v>
       </c>
       <c r="N9">
-        <v>0.7308275862068965</v>
+        <v>0.7275862068965517</v>
       </c>
       <c r="O9">
-        <v>0.006599971175940689</v>
+        <v>0.006139842141958285</v>
       </c>
     </row>
   </sheetData>

--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7622664988814321</v>
+        <v>0.7325177383592018</v>
       </c>
       <c r="C4">
-        <v>0.00571083980243281</v>
+        <v>0.006478399576184901</v>
       </c>
       <c r="D4">
-        <v>0.5250671503001033</v>
+        <v>0.5062969222671686</v>
       </c>
       <c r="E4">
-        <v>0.007535602549303078</v>
+        <v>0.00773998050037461</v>
       </c>
       <c r="F4">
-        <v>0.7079166666666667</v>
+        <v>0.6849090909090907</v>
       </c>
       <c r="G4">
-        <v>0.01341083577871771</v>
+        <v>0.01346017823885026</v>
       </c>
       <c r="H4">
-        <v>0.4186898776580533</v>
+        <v>0.4024072809459631</v>
       </c>
       <c r="I4">
-        <v>0.006510803406669541</v>
+        <v>0.006035480877851607</v>
       </c>
       <c r="J4">
-        <v>0.8794106808258723</v>
+        <v>0.8623415586859033</v>
       </c>
       <c r="K4">
-        <v>0.004615139199546481</v>
+        <v>0.00512446675375644</v>
       </c>
       <c r="L4">
-        <v>0.681744966442953</v>
+        <v>0.6584146341463415</v>
       </c>
       <c r="M4">
-        <v>0.008229091086333518</v>
+        <v>0.006626786980364008</v>
       </c>
       <c r="N4">
-        <v>0.6881218274111676</v>
+        <v>0.6650684931506849</v>
       </c>
       <c r="O4">
-        <v>0.006047232990807894</v>
+        <v>0.00556789012488601</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7783724832214765</v>
+        <v>0.7673004434589801</v>
       </c>
       <c r="C5">
-        <v>0.006340135465399022</v>
+        <v>0.005212210863563382</v>
       </c>
       <c r="D5">
-        <v>0.5356508685930461</v>
+        <v>0.5425014931510901</v>
       </c>
       <c r="E5">
-        <v>0.007694822650675448</v>
+        <v>0.006843398183213001</v>
       </c>
       <c r="F5">
-        <v>0.7006249999999998</v>
+        <v>0.7054545454545453</v>
       </c>
       <c r="G5">
-        <v>0.01178994738294192</v>
+        <v>0.01065775518491652</v>
       </c>
       <c r="H5">
-        <v>0.4347078190365547</v>
+        <v>0.4416319784845456</v>
       </c>
       <c r="I5">
-        <v>0.00706237938265486</v>
+        <v>0.006210449938898577</v>
       </c>
       <c r="J5">
-        <v>0.8799986892712665</v>
+        <v>0.8765880223586207</v>
       </c>
       <c r="K5">
-        <v>0.004154830846346713</v>
+        <v>0.00394676064826105</v>
       </c>
       <c r="L5">
-        <v>0.7048993288590606</v>
+        <v>0.6996341463414634</v>
       </c>
       <c r="M5">
-        <v>0.007275409096557328</v>
+        <v>0.006581201502876777</v>
       </c>
       <c r="N5">
-        <v>0.7038578680203047</v>
+        <v>0.701095890410959</v>
       </c>
       <c r="O5">
-        <v>0.005889097461523107</v>
+        <v>0.005327466687054638</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8232149362477234</v>
+        <v>0.83567977915804</v>
       </c>
       <c r="C6">
-        <v>0.00927433688557322</v>
+        <v>0.007793945999260976</v>
       </c>
       <c r="D6">
-        <v>0.5627912413187917</v>
+        <v>0.5750686801179133</v>
       </c>
       <c r="E6">
-        <v>0.01205974758135719</v>
+        <v>0.00991859291365238</v>
       </c>
       <c r="F6">
-        <v>0.747222222222222</v>
+        <v>0.7433333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01843074404481593</v>
+        <v>0.01512827869035271</v>
       </c>
       <c r="H6">
-        <v>0.4536807637180216</v>
+        <v>0.4724015116333098</v>
       </c>
       <c r="I6">
-        <v>0.01101081970265566</v>
+        <v>0.01072692500591782</v>
       </c>
       <c r="J6">
-        <v>0.9083290771302833</v>
+        <v>0.9054564970257605</v>
       </c>
       <c r="K6">
-        <v>0.006188222306910629</v>
+        <v>0.004970015386795534</v>
       </c>
       <c r="L6">
-        <v>0.731639344262295</v>
+        <v>0.7421739130434782</v>
       </c>
       <c r="M6">
-        <v>0.009482432257602924</v>
+        <v>0.01119575771734882</v>
       </c>
       <c r="N6">
-        <v>0.7351898734177216</v>
+        <v>0.7424444444444444</v>
       </c>
       <c r="O6">
-        <v>0.008231606980348638</v>
+        <v>0.008363728100817647</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8471220400728597</v>
+        <v>0.8576673567977916</v>
       </c>
       <c r="C7">
-        <v>0.007185958631370393</v>
+        <v>0.006617036018294886</v>
       </c>
       <c r="D7">
-        <v>0.585169246979326</v>
+        <v>0.6152761379625925</v>
       </c>
       <c r="E7">
-        <v>0.01127530844921076</v>
+        <v>0.01119610509117808</v>
       </c>
       <c r="F7">
-        <v>0.7444444444444446</v>
+        <v>0.7847619047619047</v>
       </c>
       <c r="G7">
-        <v>0.01938026746486432</v>
+        <v>0.01773944742509348</v>
       </c>
       <c r="H7">
-        <v>0.4867154437196383</v>
+        <v>0.510089612208813</v>
       </c>
       <c r="I7">
-        <v>0.01142398924637272</v>
+        <v>0.01176212435578419</v>
       </c>
       <c r="J7">
-        <v>0.9115270005783728</v>
+        <v>0.9223792163613962</v>
       </c>
       <c r="K7">
-        <v>0.00595037427250833</v>
+        <v>0.005781064780475798</v>
       </c>
       <c r="L7">
-        <v>0.7636065573770491</v>
+        <v>0.7657971014492753</v>
       </c>
       <c r="M7">
-        <v>0.01119366278386591</v>
+        <v>0.01097288309658062</v>
       </c>
       <c r="N7">
-        <v>0.7592405063291139</v>
+        <v>0.7702222222222221</v>
       </c>
       <c r="O7">
-        <v>0.008156172386637239</v>
+        <v>0.008248463547412044</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8091290130796671</v>
+        <v>0.7966613051470588</v>
       </c>
       <c r="C8">
-        <v>0.006949979917863836</v>
+        <v>0.006388648060966395</v>
       </c>
       <c r="D8">
-        <v>0.5004398723853462</v>
+        <v>0.5012082293806253</v>
       </c>
       <c r="E8">
-        <v>0.008399758554801462</v>
+        <v>0.008350641550918331</v>
       </c>
       <c r="F8">
-        <v>0.7399999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="G8">
-        <v>0.01608065363567401</v>
+        <v>0.01437604855609764</v>
       </c>
       <c r="H8">
-        <v>0.3797777712938863</v>
+        <v>0.3841999733550234</v>
       </c>
       <c r="I8">
-        <v>0.007347248767110959</v>
+        <v>0.007022914644972122</v>
       </c>
       <c r="J8">
-        <v>0.9153490125721607</v>
+        <v>0.904720046462423</v>
       </c>
       <c r="K8">
-        <v>0.004627323739905154</v>
+        <v>0.00435864176791767</v>
       </c>
       <c r="L8">
-        <v>0.695344827586207</v>
+        <v>0.68953125</v>
       </c>
       <c r="M8">
-        <v>0.009052002121991864</v>
+        <v>0.008028113051458563</v>
       </c>
       <c r="N8">
-        <v>0.7042758620689653</v>
+        <v>0.6969753086419753</v>
       </c>
       <c r="O8">
-        <v>0.006794356030421889</v>
+        <v>0.00644857317621883</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8136385255648038</v>
+        <v>0.8125321691176469</v>
       </c>
       <c r="C9">
-        <v>0.006906029580700079</v>
+        <v>0.006062816194807863</v>
       </c>
       <c r="D9">
-        <v>0.5284342509820101</v>
+        <v>0.5327281350421826</v>
       </c>
       <c r="E9">
-        <v>0.008365315746895696</v>
+        <v>0.007734652030551348</v>
       </c>
       <c r="F9">
-        <v>0.7634482758620689</v>
+        <v>0.755</v>
       </c>
       <c r="G9">
-        <v>0.01661861613958182</v>
+        <v>0.01497797396222333</v>
       </c>
       <c r="H9">
-        <v>0.4058537096483448</v>
+        <v>0.413249017919416</v>
       </c>
       <c r="I9">
-        <v>0.007145659673696458</v>
+        <v>0.006781719576258227</v>
       </c>
       <c r="J9">
-        <v>0.9248489130747584</v>
+        <v>0.9171924718313419</v>
       </c>
       <c r="K9">
-        <v>0.004767915584818372</v>
+        <v>0.004398714762779199</v>
       </c>
       <c r="L9">
-        <v>0.7186206896551723</v>
+        <v>0.7134374999999999</v>
       </c>
       <c r="M9">
-        <v>0.008120209748884388</v>
+        <v>0.007752037404595069</v>
       </c>
       <c r="N9">
-        <v>0.7275862068965517</v>
+        <v>0.7221604938271605</v>
       </c>
       <c r="O9">
-        <v>0.006139842141958285</v>
+        <v>0.005711859945934039</v>
       </c>
     </row>
   </sheetData>
